--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsalas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4D2B1-328E-5E45-B902-2FB30A5A5A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -114,6 +105,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,19 +385,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -425,8 +417,12 @@
         <f>SUM(E3:E94)</f>
         <v>2475</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1">
+        <f>SUM(F3:F80)</f>
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -442,8 +438,11 @@
       <c r="E2" s="6">
         <v>43992</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="8">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43910</v>
       </c>
@@ -459,8 +458,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43915</v>
       </c>
@@ -476,8 +478,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43916</v>
       </c>
@@ -493,8 +498,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43917</v>
       </c>
@@ -510,8 +518,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43918</v>
       </c>
@@ -527,8 +538,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43919</v>
       </c>
@@ -544,8 +558,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43920</v>
       </c>
@@ -561,8 +578,11 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43921</v>
       </c>
@@ -578,8 +598,11 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43922</v>
       </c>
@@ -595,8 +618,11 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43923</v>
       </c>
@@ -612,8 +638,11 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43924</v>
       </c>
@@ -629,8 +658,11 @@
       <c r="E13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43925</v>
       </c>
@@ -646,8 +678,11 @@
       <c r="E14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43926</v>
       </c>
@@ -663,8 +698,11 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43927</v>
       </c>
@@ -680,8 +718,11 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43928</v>
       </c>
@@ -697,8 +738,11 @@
       <c r="E17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43929</v>
       </c>
@@ -714,8 +758,11 @@
       <c r="E18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>43930</v>
       </c>
@@ -731,8 +778,11 @@
       <c r="E19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>43931</v>
       </c>
@@ -748,8 +798,11 @@
       <c r="E20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>43932</v>
       </c>
@@ -765,8 +818,11 @@
       <c r="E21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>43933</v>
       </c>
@@ -782,8 +838,11 @@
       <c r="E22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43934</v>
       </c>
@@ -799,8 +858,11 @@
       <c r="E23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>43935</v>
       </c>
@@ -816,8 +878,11 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43936</v>
       </c>
@@ -833,8 +898,11 @@
       <c r="E25" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43937</v>
       </c>
@@ -850,8 +918,11 @@
       <c r="E26" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43938</v>
       </c>
@@ -867,8 +938,11 @@
       <c r="E27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>43939</v>
       </c>
@@ -884,8 +958,11 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>43940</v>
       </c>
@@ -901,8 +978,11 @@
       <c r="E29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43941</v>
       </c>
@@ -918,8 +998,11 @@
       <c r="E30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43942</v>
       </c>
@@ -935,8 +1018,11 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43943</v>
       </c>
@@ -952,8 +1038,11 @@
       <c r="E32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43944</v>
       </c>
@@ -969,8 +1058,11 @@
       <c r="E33" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43945</v>
       </c>
@@ -986,8 +1078,11 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43946</v>
       </c>
@@ -1003,8 +1098,11 @@
       <c r="E35" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43947</v>
       </c>
@@ -1020,8 +1118,11 @@
       <c r="E36" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>43948</v>
       </c>
@@ -1037,8 +1138,11 @@
       <c r="E37" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43949</v>
       </c>
@@ -1054,8 +1158,11 @@
       <c r="E38" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43950</v>
       </c>
@@ -1071,8 +1178,11 @@
       <c r="E39" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43951</v>
       </c>
@@ -1088,8 +1198,11 @@
       <c r="E40" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>43952</v>
       </c>
@@ -1105,8 +1218,11 @@
       <c r="E41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43953</v>
       </c>
@@ -1122,8 +1238,11 @@
       <c r="E42" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>43954</v>
       </c>
@@ -1139,8 +1258,11 @@
       <c r="E43" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43955</v>
       </c>
@@ -1156,8 +1278,11 @@
       <c r="E44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43956</v>
       </c>
@@ -1173,8 +1298,11 @@
       <c r="E45" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43957</v>
       </c>
@@ -1190,8 +1318,11 @@
       <c r="E46" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43958</v>
       </c>
@@ -1207,8 +1338,11 @@
       <c r="E47" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>43959</v>
       </c>
@@ -1224,8 +1358,11 @@
       <c r="E48" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>43960</v>
       </c>
@@ -1241,8 +1378,11 @@
       <c r="E49" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>43961</v>
       </c>
@@ -1258,8 +1398,11 @@
       <c r="E50" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43962</v>
       </c>
@@ -1275,8 +1418,11 @@
       <c r="E51" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>43963</v>
       </c>
@@ -1292,8 +1438,11 @@
       <c r="E52" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>43964</v>
       </c>
@@ -1309,8 +1458,11 @@
       <c r="E53" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>43965</v>
       </c>
@@ -1326,8 +1478,11 @@
       <c r="E54" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>43966</v>
       </c>
@@ -1343,8 +1498,11 @@
       <c r="E55" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>43967</v>
       </c>
@@ -1360,8 +1518,11 @@
       <c r="E56" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>43968</v>
       </c>
@@ -1377,8 +1538,11 @@
       <c r="E57" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>43969</v>
       </c>
@@ -1394,8 +1558,11 @@
       <c r="E58" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>43970</v>
       </c>
@@ -1411,8 +1578,11 @@
       <c r="E59" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>43971</v>
       </c>
@@ -1428,8 +1598,11 @@
       <c r="E60" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>43972</v>
       </c>
@@ -1445,8 +1618,11 @@
       <c r="E61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>43973</v>
       </c>
@@ -1462,8 +1638,11 @@
       <c r="E62" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>43974</v>
       </c>
@@ -1479,8 +1658,11 @@
       <c r="E63" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>43975</v>
       </c>
@@ -1496,8 +1678,11 @@
       <c r="E64" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>43976</v>
       </c>
@@ -1513,8 +1698,11 @@
       <c r="E65" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>43977</v>
       </c>
@@ -1530,8 +1718,11 @@
       <c r="E66" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>43978</v>
       </c>
@@ -1547,8 +1738,11 @@
       <c r="E67" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>43979</v>
       </c>
@@ -1564,8 +1758,11 @@
       <c r="E68" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>43980</v>
       </c>
@@ -1581,8 +1778,11 @@
       <c r="E69" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>43981</v>
       </c>
@@ -1598,8 +1798,11 @@
       <c r="E70" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>43982</v>
       </c>
@@ -1615,8 +1818,11 @@
       <c r="E71" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>43983</v>
       </c>
@@ -1632,8 +1838,11 @@
       <c r="E72" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>43984</v>
       </c>
@@ -1649,8 +1858,11 @@
       <c r="E73" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>43985</v>
       </c>
@@ -1666,8 +1878,11 @@
       <c r="E74" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>43986</v>
       </c>
@@ -1683,8 +1898,11 @@
       <c r="E75" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>43987</v>
       </c>
@@ -1700,8 +1918,11 @@
       <c r="E76" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>43988</v>
       </c>
@@ -1715,8 +1936,11 @@
       <c r="E77" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>43989</v>
       </c>
@@ -1728,8 +1952,11 @@
       <c r="E78" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>43990</v>
       </c>
@@ -1739,8 +1966,11 @@
       <c r="E79" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>43991</v>
       </c>
@@ -1748,8 +1978,11 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>43992</v>
       </c>
@@ -1758,7 +1991,7 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>43993</v>
       </c>
@@ -1767,7 +2000,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1776,8 +2009,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E1" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsalas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA09646-ADDC-D44E-8BFA-B9967AB68529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,19 +394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -421,8 +430,12 @@
         <f>SUM(F3:F80)</f>
         <v>2648</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <f>SUM(G3:G81)</f>
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -441,8 +454,11 @@
       <c r="F2" s="8">
         <v>43993</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="8">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43910</v>
       </c>
@@ -461,8 +477,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43915</v>
       </c>
@@ -481,8 +500,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43916</v>
       </c>
@@ -501,8 +523,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43917</v>
       </c>
@@ -521,8 +546,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43918</v>
       </c>
@@ -541,8 +569,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43919</v>
       </c>
@@ -561,8 +592,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43920</v>
       </c>
@@ -581,8 +615,11 @@
       <c r="F9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43921</v>
       </c>
@@ -601,8 +638,11 @@
       <c r="F10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>43922</v>
       </c>
@@ -621,8 +661,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43923</v>
       </c>
@@ -641,8 +684,11 @@
       <c r="F12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43924</v>
       </c>
@@ -661,8 +707,11 @@
       <c r="F13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43925</v>
       </c>
@@ -681,8 +730,11 @@
       <c r="F14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43926</v>
       </c>
@@ -701,8 +753,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43927</v>
       </c>
@@ -721,8 +776,11 @@
       <c r="F16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43928</v>
       </c>
@@ -741,8 +799,11 @@
       <c r="F17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43929</v>
       </c>
@@ -761,8 +822,11 @@
       <c r="F18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>43930</v>
       </c>
@@ -781,8 +845,11 @@
       <c r="F19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43931</v>
       </c>
@@ -801,8 +868,11 @@
       <c r="F20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>43932</v>
       </c>
@@ -821,8 +891,11 @@
       <c r="F21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43933</v>
       </c>
@@ -841,8 +914,11 @@
       <c r="F22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>43934</v>
       </c>
@@ -861,8 +937,11 @@
       <c r="F23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43935</v>
       </c>
@@ -881,8 +960,11 @@
       <c r="F24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>43936</v>
       </c>
@@ -901,8 +983,11 @@
       <c r="F25" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43937</v>
       </c>
@@ -921,8 +1006,11 @@
       <c r="F26" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>43938</v>
       </c>
@@ -941,8 +1029,11 @@
       <c r="F27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43939</v>
       </c>
@@ -961,8 +1052,11 @@
       <c r="F28" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>43940</v>
       </c>
@@ -981,8 +1075,11 @@
       <c r="F29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43941</v>
       </c>
@@ -1001,8 +1098,11 @@
       <c r="F30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>43942</v>
       </c>
@@ -1021,8 +1121,11 @@
       <c r="F31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43943</v>
       </c>
@@ -1041,8 +1144,11 @@
       <c r="F32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>43944</v>
       </c>
@@ -1061,8 +1167,11 @@
       <c r="F33" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>43945</v>
       </c>
@@ -1081,8 +1190,11 @@
       <c r="F34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>43946</v>
       </c>
@@ -1101,8 +1213,11 @@
       <c r="F35" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>43947</v>
       </c>
@@ -1121,8 +1236,11 @@
       <c r="F36" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>43948</v>
       </c>
@@ -1141,8 +1259,11 @@
       <c r="F37" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>43949</v>
       </c>
@@ -1161,8 +1282,11 @@
       <c r="F38" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>43950</v>
       </c>
@@ -1181,8 +1305,11 @@
       <c r="F39" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>43951</v>
       </c>
@@ -1201,8 +1328,11 @@
       <c r="F40" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>43952</v>
       </c>
@@ -1221,8 +1351,11 @@
       <c r="F41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>43953</v>
       </c>
@@ -1241,8 +1374,11 @@
       <c r="F42" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>43954</v>
       </c>
@@ -1261,8 +1397,11 @@
       <c r="F43" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43955</v>
       </c>
@@ -1281,8 +1420,11 @@
       <c r="F44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43956</v>
       </c>
@@ -1301,8 +1443,11 @@
       <c r="F45" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>43957</v>
       </c>
@@ -1321,8 +1466,11 @@
       <c r="F46" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>43958</v>
       </c>
@@ -1341,8 +1489,11 @@
       <c r="F47" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>43959</v>
       </c>
@@ -1361,8 +1512,11 @@
       <c r="F48" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>43960</v>
       </c>
@@ -1381,8 +1535,11 @@
       <c r="F49" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>43961</v>
       </c>
@@ -1401,8 +1558,11 @@
       <c r="F50" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>43962</v>
       </c>
@@ -1421,8 +1581,11 @@
       <c r="F51" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>43963</v>
       </c>
@@ -1441,8 +1604,11 @@
       <c r="F52" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>43964</v>
       </c>
@@ -1461,8 +1627,11 @@
       <c r="F53" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>43965</v>
       </c>
@@ -1481,8 +1650,11 @@
       <c r="F54" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>43966</v>
       </c>
@@ -1501,8 +1673,11 @@
       <c r="F55" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>43967</v>
       </c>
@@ -1521,8 +1696,11 @@
       <c r="F56" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>43968</v>
       </c>
@@ -1541,8 +1719,11 @@
       <c r="F57" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>43969</v>
       </c>
@@ -1561,8 +1742,11 @@
       <c r="F58" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>43970</v>
       </c>
@@ -1581,8 +1765,11 @@
       <c r="F59" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>43971</v>
       </c>
@@ -1601,8 +1788,11 @@
       <c r="F60" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>43972</v>
       </c>
@@ -1621,8 +1811,11 @@
       <c r="F61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>43973</v>
       </c>
@@ -1641,8 +1834,11 @@
       <c r="F62" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>43974</v>
       </c>
@@ -1661,8 +1857,11 @@
       <c r="F63" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>43975</v>
       </c>
@@ -1681,8 +1880,11 @@
       <c r="F64" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>43976</v>
       </c>
@@ -1701,8 +1903,11 @@
       <c r="F65" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>43977</v>
       </c>
@@ -1721,8 +1926,11 @@
       <c r="F66" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>43978</v>
       </c>
@@ -1741,8 +1949,11 @@
       <c r="F67" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>43979</v>
       </c>
@@ -1761,8 +1972,11 @@
       <c r="F68" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>43980</v>
       </c>
@@ -1781,8 +1995,11 @@
       <c r="F69" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>43981</v>
       </c>
@@ -1801,8 +2018,11 @@
       <c r="F70" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>43982</v>
       </c>
@@ -1821,8 +2041,11 @@
       <c r="F71" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>43983</v>
       </c>
@@ -1841,8 +2064,11 @@
       <c r="F72" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>43984</v>
       </c>
@@ -1861,8 +2087,11 @@
       <c r="F73" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>43985</v>
       </c>
@@ -1881,8 +2110,11 @@
       <c r="F74" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>43986</v>
       </c>
@@ -1901,8 +2133,11 @@
       <c r="F75" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>43987</v>
       </c>
@@ -1921,8 +2156,11 @@
       <c r="F76" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>43988</v>
       </c>
@@ -1939,8 +2177,11 @@
       <c r="F77" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>43989</v>
       </c>
@@ -1955,8 +2196,11 @@
       <c r="F78" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>43990</v>
       </c>
@@ -1969,8 +2213,11 @@
       <c r="F79" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>43991</v>
       </c>
@@ -1981,8 +2228,11 @@
       <c r="F80">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>43992</v>
       </c>
@@ -1990,8 +2240,11 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>43993</v>
       </c>
@@ -2000,7 +2253,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA09646-ADDC-D44E-8BFA-B9967AB68529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51239E73-DA2D-5141-B33D-271CA0DE80AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -406,7 +406,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -434,8 +434,12 @@
         <f>SUM(G3:G81)</f>
         <v>2870</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1">
+        <f>SUM(H3:H82)</f>
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -457,8 +461,11 @@
       <c r="G2" s="8">
         <v>43994</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="8">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43910</v>
       </c>
@@ -480,8 +487,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43915</v>
       </c>
@@ -503,8 +513,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43916</v>
       </c>
@@ -526,8 +539,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43917</v>
       </c>
@@ -549,8 +565,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43918</v>
       </c>
@@ -572,8 +591,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43919</v>
       </c>
@@ -595,8 +617,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43920</v>
       </c>
@@ -618,8 +643,11 @@
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43921</v>
       </c>
@@ -641,8 +669,11 @@
       <c r="G10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>43922</v>
       </c>
@@ -664,8 +695,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43923</v>
       </c>
@@ -687,8 +721,11 @@
       <c r="G12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43924</v>
       </c>
@@ -710,8 +747,11 @@
       <c r="G13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43925</v>
       </c>
@@ -733,8 +773,11 @@
       <c r="G14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43926</v>
       </c>
@@ -756,8 +799,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43927</v>
       </c>
@@ -779,8 +825,11 @@
       <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43928</v>
       </c>
@@ -802,8 +851,11 @@
       <c r="G17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43929</v>
       </c>
@@ -825,8 +877,11 @@
       <c r="G18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>43930</v>
       </c>
@@ -848,8 +903,11 @@
       <c r="G19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43931</v>
       </c>
@@ -871,8 +929,11 @@
       <c r="G20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>43932</v>
       </c>
@@ -894,8 +955,11 @@
       <c r="G21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43933</v>
       </c>
@@ -917,8 +981,11 @@
       <c r="G22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>43934</v>
       </c>
@@ -940,8 +1007,11 @@
       <c r="G23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43935</v>
       </c>
@@ -963,8 +1033,11 @@
       <c r="G24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>43936</v>
       </c>
@@ -986,8 +1059,11 @@
       <c r="G25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43937</v>
       </c>
@@ -1009,8 +1085,11 @@
       <c r="G26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>43938</v>
       </c>
@@ -1032,8 +1111,11 @@
       <c r="G27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43939</v>
       </c>
@@ -1055,8 +1137,11 @@
       <c r="G28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>43940</v>
       </c>
@@ -1078,8 +1163,11 @@
       <c r="G29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43941</v>
       </c>
@@ -1101,8 +1189,11 @@
       <c r="G30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>43942</v>
       </c>
@@ -1124,8 +1215,11 @@
       <c r="G31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43943</v>
       </c>
@@ -1147,8 +1241,11 @@
       <c r="G32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>43944</v>
       </c>
@@ -1170,8 +1267,11 @@
       <c r="G33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>43945</v>
       </c>
@@ -1193,8 +1293,11 @@
       <c r="G34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>43946</v>
       </c>
@@ -1216,8 +1319,11 @@
       <c r="G35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>43947</v>
       </c>
@@ -1239,8 +1345,11 @@
       <c r="G36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>43948</v>
       </c>
@@ -1262,8 +1371,11 @@
       <c r="G37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>43949</v>
       </c>
@@ -1285,8 +1397,11 @@
       <c r="G38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>43950</v>
       </c>
@@ -1308,8 +1423,11 @@
       <c r="G39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>43951</v>
       </c>
@@ -1331,8 +1449,11 @@
       <c r="G40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>43952</v>
       </c>
@@ -1354,8 +1475,11 @@
       <c r="G41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>43953</v>
       </c>
@@ -1377,8 +1501,11 @@
       <c r="G42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>43954</v>
       </c>
@@ -1400,8 +1527,11 @@
       <c r="G43">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43955</v>
       </c>
@@ -1423,8 +1553,11 @@
       <c r="G44">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43956</v>
       </c>
@@ -1446,8 +1579,11 @@
       <c r="G45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>43957</v>
       </c>
@@ -1469,8 +1605,11 @@
       <c r="G46">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>43958</v>
       </c>
@@ -1492,8 +1631,11 @@
       <c r="G47">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>43959</v>
       </c>
@@ -1515,8 +1657,11 @@
       <c r="G48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>43960</v>
       </c>
@@ -1538,8 +1683,11 @@
       <c r="G49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>43961</v>
       </c>
@@ -1561,8 +1709,11 @@
       <c r="G50">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>43962</v>
       </c>
@@ -1584,8 +1735,11 @@
       <c r="G51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>43963</v>
       </c>
@@ -1607,8 +1761,11 @@
       <c r="G52">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>43964</v>
       </c>
@@ -1630,8 +1787,11 @@
       <c r="G53">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>43965</v>
       </c>
@@ -1653,8 +1813,11 @@
       <c r="G54">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>43966</v>
       </c>
@@ -1676,8 +1839,11 @@
       <c r="G55">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>43967</v>
       </c>
@@ -1699,8 +1865,11 @@
       <c r="G56">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>43968</v>
       </c>
@@ -1722,8 +1891,11 @@
       <c r="G57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>43969</v>
       </c>
@@ -1745,8 +1917,11 @@
       <c r="G58">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>43970</v>
       </c>
@@ -1768,8 +1943,11 @@
       <c r="G59">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>43971</v>
       </c>
@@ -1791,8 +1969,11 @@
       <c r="G60">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>43972</v>
       </c>
@@ -1814,8 +1995,11 @@
       <c r="G61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>43973</v>
       </c>
@@ -1837,8 +2021,11 @@
       <c r="G62">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>43974</v>
       </c>
@@ -1860,8 +2047,11 @@
       <c r="G63">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>43975</v>
       </c>
@@ -1883,8 +2073,11 @@
       <c r="G64">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>43976</v>
       </c>
@@ -1906,8 +2099,11 @@
       <c r="G65">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>43977</v>
       </c>
@@ -1929,8 +2125,11 @@
       <c r="G66">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>43978</v>
       </c>
@@ -1952,8 +2151,11 @@
       <c r="G67">
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>43979</v>
       </c>
@@ -1975,8 +2177,11 @@
       <c r="G68">
         <v>109</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>43980</v>
       </c>
@@ -1998,8 +2203,11 @@
       <c r="G69">
         <v>118</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>43981</v>
       </c>
@@ -2021,8 +2229,11 @@
       <c r="G70">
         <v>119</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>43982</v>
       </c>
@@ -2044,8 +2255,11 @@
       <c r="G71">
         <v>105</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>43983</v>
       </c>
@@ -2067,8 +2281,11 @@
       <c r="G72">
         <v>131</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>43984</v>
       </c>
@@ -2090,8 +2307,11 @@
       <c r="G73">
         <v>124</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>43985</v>
       </c>
@@ -2113,8 +2333,11 @@
       <c r="G74">
         <v>128</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>43986</v>
       </c>
@@ -2136,8 +2359,11 @@
       <c r="G75">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>43987</v>
       </c>
@@ -2159,8 +2385,11 @@
       <c r="G76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>43988</v>
       </c>
@@ -2180,8 +2409,11 @@
       <c r="G77">
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>43989</v>
       </c>
@@ -2199,8 +2431,11 @@
       <c r="G78">
         <v>115</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>43990</v>
       </c>
@@ -2216,8 +2451,11 @@
       <c r="G79">
         <v>101</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>43991</v>
       </c>
@@ -2231,8 +2469,11 @@
       <c r="G80">
         <v>112</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>43992</v>
       </c>
@@ -2243,8 +2484,11 @@
       <c r="G81">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>43993</v>
       </c>
@@ -2252,8 +2496,11 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51239E73-DA2D-5141-B33D-271CA0DE80AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DDC76D-669B-5948-8D6A-00C4F1003B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DDC76D-669B-5948-8D6A-00C4F1003B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8D24A1-8798-744C-95B7-F6FCA5F1BF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -406,7 +406,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -438,8 +438,12 @@
         <f>SUM(H3:H82)</f>
         <v>3101</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <f>SUM(I3:I93)</f>
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -464,8 +468,11 @@
       <c r="H2" s="8">
         <v>43995</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="8">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43910</v>
       </c>
@@ -490,8 +497,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43915</v>
       </c>
@@ -516,8 +526,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>43916</v>
       </c>
@@ -542,8 +555,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43917</v>
       </c>
@@ -568,8 +584,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>43918</v>
       </c>
@@ -594,8 +613,11 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43919</v>
       </c>
@@ -620,8 +642,11 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>43920</v>
       </c>
@@ -646,8 +671,11 @@
       <c r="H9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43921</v>
       </c>
@@ -672,8 +700,11 @@
       <c r="H10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>43922</v>
       </c>
@@ -698,8 +729,11 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43923</v>
       </c>
@@ -724,8 +758,11 @@
       <c r="H12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>43924</v>
       </c>
@@ -750,8 +787,11 @@
       <c r="H13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43925</v>
       </c>
@@ -776,8 +816,11 @@
       <c r="H14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43926</v>
       </c>
@@ -802,8 +845,11 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43927</v>
       </c>
@@ -828,8 +874,11 @@
       <c r="H16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>43928</v>
       </c>
@@ -854,8 +903,11 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43929</v>
       </c>
@@ -880,8 +932,11 @@
       <c r="H18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>43930</v>
       </c>
@@ -906,8 +961,11 @@
       <c r="H19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43931</v>
       </c>
@@ -932,8 +990,11 @@
       <c r="H20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>43932</v>
       </c>
@@ -958,8 +1019,11 @@
       <c r="H21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43933</v>
       </c>
@@ -984,8 +1048,11 @@
       <c r="H22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>43934</v>
       </c>
@@ -1010,8 +1077,11 @@
       <c r="H23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43935</v>
       </c>
@@ -1036,8 +1106,11 @@
       <c r="H24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>43936</v>
       </c>
@@ -1062,8 +1135,11 @@
       <c r="H25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43937</v>
       </c>
@@ -1088,8 +1164,11 @@
       <c r="H26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>43938</v>
       </c>
@@ -1114,8 +1193,11 @@
       <c r="H27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43939</v>
       </c>
@@ -1140,8 +1222,11 @@
       <c r="H28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>43940</v>
       </c>
@@ -1166,8 +1251,11 @@
       <c r="H29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43941</v>
       </c>
@@ -1192,8 +1280,11 @@
       <c r="H30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>43942</v>
       </c>
@@ -1218,8 +1309,11 @@
       <c r="H31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43943</v>
       </c>
@@ -1244,8 +1338,11 @@
       <c r="H32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>43944</v>
       </c>
@@ -1270,8 +1367,11 @@
       <c r="H33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>43945</v>
       </c>
@@ -1296,8 +1396,11 @@
       <c r="H34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>43946</v>
       </c>
@@ -1322,8 +1425,11 @@
       <c r="H35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>43947</v>
       </c>
@@ -1348,8 +1454,11 @@
       <c r="H36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>43948</v>
       </c>
@@ -1374,8 +1483,11 @@
       <c r="H37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>43949</v>
       </c>
@@ -1400,8 +1512,11 @@
       <c r="H38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>43950</v>
       </c>
@@ -1426,8 +1541,11 @@
       <c r="H39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>43951</v>
       </c>
@@ -1452,8 +1570,11 @@
       <c r="H40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>43952</v>
       </c>
@@ -1478,8 +1599,11 @@
       <c r="H41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>43953</v>
       </c>
@@ -1504,8 +1628,11 @@
       <c r="H42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>43954</v>
       </c>
@@ -1530,8 +1657,11 @@
       <c r="H43">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>43955</v>
       </c>
@@ -1556,8 +1686,11 @@
       <c r="H44">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43956</v>
       </c>
@@ -1582,8 +1715,11 @@
       <c r="H45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>43957</v>
       </c>
@@ -1608,8 +1744,11 @@
       <c r="H46">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>43958</v>
       </c>
@@ -1634,8 +1773,11 @@
       <c r="H47">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>43959</v>
       </c>
@@ -1660,8 +1802,11 @@
       <c r="H48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>43960</v>
       </c>
@@ -1686,8 +1831,11 @@
       <c r="H49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>43961</v>
       </c>
@@ -1712,8 +1860,11 @@
       <c r="H50">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>43962</v>
       </c>
@@ -1738,8 +1889,11 @@
       <c r="H51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>43963</v>
       </c>
@@ -1764,8 +1918,11 @@
       <c r="H52">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>43964</v>
       </c>
@@ -1790,8 +1947,11 @@
       <c r="H53">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>43965</v>
       </c>
@@ -1816,8 +1976,11 @@
       <c r="H54">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>43966</v>
       </c>
@@ -1842,8 +2005,11 @@
       <c r="H55">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>43967</v>
       </c>
@@ -1868,8 +2034,11 @@
       <c r="H56">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>43968</v>
       </c>
@@ -1894,8 +2063,11 @@
       <c r="H57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>43969</v>
       </c>
@@ -1920,8 +2092,11 @@
       <c r="H58">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>43970</v>
       </c>
@@ -1946,8 +2121,11 @@
       <c r="H59">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>43971</v>
       </c>
@@ -1972,8 +2150,11 @@
       <c r="H60">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>43972</v>
       </c>
@@ -1998,8 +2179,11 @@
       <c r="H61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>43973</v>
       </c>
@@ -2024,8 +2208,11 @@
       <c r="H62">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>43974</v>
       </c>
@@ -2050,8 +2237,11 @@
       <c r="H63">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>43975</v>
       </c>
@@ -2076,8 +2266,11 @@
       <c r="H64">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>43976</v>
       </c>
@@ -2102,8 +2295,11 @@
       <c r="H65">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>43977</v>
       </c>
@@ -2128,8 +2324,11 @@
       <c r="H66">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>43978</v>
       </c>
@@ -2154,8 +2353,11 @@
       <c r="H67">
         <v>113</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>43979</v>
       </c>
@@ -2180,8 +2382,11 @@
       <c r="H68">
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>43980</v>
       </c>
@@ -2206,8 +2411,11 @@
       <c r="H69">
         <v>119</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>43981</v>
       </c>
@@ -2232,8 +2440,11 @@
       <c r="H70">
         <v>121</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>43982</v>
       </c>
@@ -2258,8 +2469,11 @@
       <c r="H71">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>43983</v>
       </c>
@@ -2284,8 +2498,11 @@
       <c r="H72">
         <v>133</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>43984</v>
       </c>
@@ -2310,8 +2527,11 @@
       <c r="H73">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>43985</v>
       </c>
@@ -2336,8 +2556,11 @@
       <c r="H74">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>43986</v>
       </c>
@@ -2362,8 +2585,11 @@
       <c r="H75">
         <v>132</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>43987</v>
       </c>
@@ -2388,8 +2614,11 @@
       <c r="H76">
         <v>99</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>43988</v>
       </c>
@@ -2412,8 +2641,11 @@
       <c r="H77">
         <v>118</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>43989</v>
       </c>
@@ -2434,8 +2666,11 @@
       <c r="H78">
         <v>121</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>43990</v>
       </c>
@@ -2454,8 +2689,11 @@
       <c r="H79">
         <v>114</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>43991</v>
       </c>
@@ -2472,8 +2710,11 @@
       <c r="H80">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>43992</v>
       </c>
@@ -2487,8 +2728,11 @@
       <c r="H81">
         <v>97</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>43993</v>
       </c>
@@ -2499,13 +2743,19 @@
       <c r="H82">
         <v>29</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
+      <c r="I83">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8D24A1-8798-744C-95B7-F6FCA5F1BF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D557D8B0-400F-F54B-9910-C756EC8B9FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,20 +101,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -406,74 +405,81 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7">
         <f>SUM(B3:B76)</f>
         <v>2190</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="7">
         <f>SUM(C3:C77)</f>
         <v>2264</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="7">
         <f>SUM(D3:D78)</f>
         <v>2283</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <f>SUM(E3:E94)</f>
         <v>2475</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <f>SUM(F3:F80)</f>
         <v>2648</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <f>SUM(G3:G81)</f>
         <v>2870</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <f>SUM(H3:H82)</f>
         <v>3101</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <f>SUM(I3:I93)</f>
         <v>3323</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="J1" s="1">
+        <f>SUM(J3:J84)</f>
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>43989</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>43990</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>43991</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>43992</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>43993</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>43994</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>43995</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>43996</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="J2" s="6">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>43910</v>
       </c>
       <c r="B3" s="1">
@@ -491,18 +497,21 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>43915</v>
       </c>
       <c r="B4" s="1">
@@ -520,18 +529,21 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>43916</v>
       </c>
       <c r="B5" s="1">
@@ -549,18 +561,21 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>43917</v>
       </c>
       <c r="B6" s="1">
@@ -578,18 +593,21 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>43918</v>
       </c>
       <c r="B7" s="1">
@@ -607,18 +625,21 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>43919</v>
       </c>
       <c r="B8" s="1">
@@ -636,18 +657,21 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>43920</v>
       </c>
       <c r="B9" s="1">
@@ -665,18 +689,21 @@
       <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>43921</v>
       </c>
       <c r="B10" s="1">
@@ -694,18 +721,21 @@
       <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>43922</v>
       </c>
       <c r="B11" s="1">
@@ -723,18 +753,21 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>43923</v>
       </c>
       <c r="B12" s="1">
@@ -752,18 +785,21 @@
       <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>43924</v>
       </c>
       <c r="B13" s="1">
@@ -781,18 +817,21 @@
       <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>43925</v>
       </c>
       <c r="B14" s="1">
@@ -810,18 +849,21 @@
       <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>43926</v>
       </c>
       <c r="B15" s="1">
@@ -839,18 +881,21 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>43927</v>
       </c>
       <c r="B16" s="1">
@@ -868,18 +913,21 @@
       <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>43928</v>
       </c>
       <c r="B17" s="1">
@@ -897,18 +945,21 @@
       <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>43929</v>
       </c>
       <c r="B18" s="1">
@@ -926,18 +977,21 @@
       <c r="F18" s="1">
         <v>10</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>43930</v>
       </c>
       <c r="B19" s="1">
@@ -955,18 +1009,21 @@
       <c r="F19" s="1">
         <v>9</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>9</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="J19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>43931</v>
       </c>
       <c r="B20" s="1">
@@ -984,18 +1041,21 @@
       <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>43932</v>
       </c>
       <c r="B21" s="1">
@@ -1013,18 +1073,21 @@
       <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>43933</v>
       </c>
       <c r="B22" s="1">
@@ -1042,18 +1105,21 @@
       <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>3</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>43934</v>
       </c>
       <c r="B23" s="1">
@@ -1071,18 +1137,21 @@
       <c r="F23" s="1">
         <v>9</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>9</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>9</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="J23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>43935</v>
       </c>
       <c r="B24" s="1">
@@ -1100,18 +1169,21 @@
       <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>43936</v>
       </c>
       <c r="B25" s="1">
@@ -1129,18 +1201,21 @@
       <c r="F25" s="1">
         <v>8</v>
       </c>
-      <c r="G25">
-        <v>8</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>43937</v>
       </c>
       <c r="B26" s="1">
@@ -1158,18 +1233,21 @@
       <c r="F26" s="1">
         <v>6</v>
       </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>43938</v>
       </c>
       <c r="B27" s="1">
@@ -1187,18 +1265,21 @@
       <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>43939</v>
       </c>
       <c r="B28" s="1">
@@ -1216,18 +1297,21 @@
       <c r="F28" s="1">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>43940</v>
       </c>
       <c r="B29" s="1">
@@ -1245,18 +1329,21 @@
       <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>43941</v>
       </c>
       <c r="B30" s="1">
@@ -1274,18 +1361,21 @@
       <c r="F30" s="1">
         <v>10</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>10</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>10</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>43942</v>
       </c>
       <c r="B31" s="1">
@@ -1303,18 +1393,21 @@
       <c r="F31" s="1">
         <v>8</v>
       </c>
-      <c r="G31">
-        <v>8</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>43943</v>
       </c>
       <c r="B32" s="1">
@@ -1332,18 +1425,21 @@
       <c r="F32" s="1">
         <v>5</v>
       </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>43944</v>
       </c>
       <c r="B33" s="1">
@@ -1361,18 +1457,21 @@
       <c r="F33" s="1">
         <v>7</v>
       </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <v>7</v>
-      </c>
-      <c r="I33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="G33" s="1">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>43945</v>
       </c>
       <c r="B34" s="1">
@@ -1390,18 +1489,21 @@
       <c r="F34" s="1">
         <v>6</v>
       </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="G34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>43946</v>
       </c>
       <c r="B35" s="1">
@@ -1419,18 +1521,21 @@
       <c r="F35" s="1">
         <v>7</v>
       </c>
-      <c r="G35">
-        <v>7</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="G35" s="1">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>43947</v>
       </c>
       <c r="B36" s="1">
@@ -1448,18 +1553,21 @@
       <c r="F36" s="1">
         <v>9</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>9</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>9</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="J36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>43948</v>
       </c>
       <c r="B37" s="1">
@@ -1477,18 +1585,21 @@
       <c r="F37" s="1">
         <v>11</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>11</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>11</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="J37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>43949</v>
       </c>
       <c r="B38" s="1">
@@ -1506,18 +1617,21 @@
       <c r="F38" s="1">
         <v>7</v>
       </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="I38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>43950</v>
       </c>
       <c r="B39" s="1">
@@ -1535,18 +1649,21 @@
       <c r="F39" s="1">
         <v>6</v>
       </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>43951</v>
       </c>
       <c r="B40" s="1">
@@ -1564,18 +1681,21 @@
       <c r="F40" s="1">
         <v>8</v>
       </c>
-      <c r="G40">
-        <v>8</v>
-      </c>
-      <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="I40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>43952</v>
       </c>
       <c r="B41" s="1">
@@ -1593,18 +1713,21 @@
       <c r="F41" s="1">
         <v>10</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>10</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>10</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>43953</v>
       </c>
       <c r="B42" s="1">
@@ -1622,18 +1745,21 @@
       <c r="F42" s="1">
         <v>7</v>
       </c>
-      <c r="G42">
-        <v>7</v>
-      </c>
-      <c r="H42">
-        <v>7</v>
-      </c>
-      <c r="I42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="G42" s="1">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>43954</v>
       </c>
       <c r="B43" s="1">
@@ -1651,18 +1777,21 @@
       <c r="F43" s="1">
         <v>19</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>19</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>19</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="J43" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43955</v>
       </c>
       <c r="B44" s="1">
@@ -1680,18 +1809,21 @@
       <c r="F44" s="1">
         <v>12</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>12</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>12</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="J44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>43956</v>
       </c>
       <c r="B45" s="1">
@@ -1709,18 +1841,21 @@
       <c r="F45" s="1">
         <v>11</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>11</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>11</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="J45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>43957</v>
       </c>
       <c r="B46" s="1">
@@ -1738,18 +1873,21 @@
       <c r="F46" s="1">
         <v>14</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>14</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>14</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="J46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>43958</v>
       </c>
       <c r="B47" s="1">
@@ -1767,18 +1905,21 @@
       <c r="F47" s="1">
         <v>29</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>29</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>29</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="J47" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>43959</v>
       </c>
       <c r="B48" s="1">
@@ -1796,18 +1937,21 @@
       <c r="F48" s="1">
         <v>16</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>16</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>16</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="J48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>43960</v>
       </c>
       <c r="B49" s="1">
@@ -1825,18 +1969,21 @@
       <c r="F49" s="1">
         <v>22</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>22</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>22</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="J49" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>43961</v>
       </c>
       <c r="B50" s="1">
@@ -1854,18 +2001,21 @@
       <c r="F50" s="1">
         <v>30</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>30</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>30</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="J50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>43962</v>
       </c>
       <c r="B51" s="1">
@@ -1883,18 +2033,21 @@
       <c r="F51" s="1">
         <v>19</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>19</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>19</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="J51" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>43963</v>
       </c>
       <c r="B52" s="1">
@@ -1912,18 +2065,21 @@
       <c r="F52" s="1">
         <v>25</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>25</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>25</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="J52" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>43964</v>
       </c>
       <c r="B53" s="1">
@@ -1941,18 +2097,21 @@
       <c r="F53" s="1">
         <v>38</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>38</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <v>38</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="J53" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
         <v>43965</v>
       </c>
       <c r="B54" s="1">
@@ -1970,18 +2129,21 @@
       <c r="F54" s="1">
         <v>35</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>35</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>35</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="J54" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
         <v>43966</v>
       </c>
       <c r="B55" s="1">
@@ -1999,18 +2161,21 @@
       <c r="F55" s="1">
         <v>32</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>32</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>32</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="J55" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>43967</v>
       </c>
       <c r="B56" s="1">
@@ -2028,18 +2193,21 @@
       <c r="F56" s="1">
         <v>47</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>47</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>48</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="J56" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
         <v>43968</v>
       </c>
       <c r="B57" s="1">
@@ -2057,18 +2225,21 @@
       <c r="F57" s="1">
         <v>45</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>45</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>45</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="J57" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
         <v>43969</v>
       </c>
       <c r="B58" s="1">
@@ -2086,18 +2257,21 @@
       <c r="F58" s="1">
         <v>60</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>60</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>60</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="J58" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
         <v>43970</v>
       </c>
       <c r="B59" s="1">
@@ -2115,18 +2289,21 @@
       <c r="F59" s="1">
         <v>60</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>60</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>60</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="J59" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>43971</v>
       </c>
       <c r="B60" s="1">
@@ -2144,18 +2321,21 @@
       <c r="F60" s="1">
         <v>65</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>65</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>65</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="J60" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>43972</v>
       </c>
       <c r="B61" s="1">
@@ -2173,18 +2353,21 @@
       <c r="F61" s="1">
         <v>60</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>60</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>60</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="J61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>43973</v>
       </c>
       <c r="B62" s="1">
@@ -2202,18 +2385,21 @@
       <c r="F62" s="1">
         <v>69</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>69</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>69</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="J62" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>43974</v>
       </c>
       <c r="B63" s="1">
@@ -2231,18 +2417,21 @@
       <c r="F63" s="1">
         <v>84</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>84</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>85</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="J63" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>43975</v>
       </c>
       <c r="B64" s="1">
@@ -2260,18 +2449,21 @@
       <c r="F64" s="1">
         <v>93</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>93</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>94</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="J64" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>43976</v>
       </c>
       <c r="B65" s="1">
@@ -2289,18 +2481,21 @@
       <c r="F65" s="1">
         <v>85</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>85</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>85</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+      <c r="J65" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
         <v>43977</v>
       </c>
       <c r="B66" s="1">
@@ -2318,18 +2513,21 @@
       <c r="F66" s="1">
         <v>101</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>102</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>102</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="J66" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>43978</v>
       </c>
       <c r="B67" s="1">
@@ -2347,18 +2545,21 @@
       <c r="F67" s="1">
         <v>111</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>111</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <v>113</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="J67" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>43979</v>
       </c>
       <c r="B68" s="1">
@@ -2376,18 +2577,21 @@
       <c r="F68" s="1">
         <v>109</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>109</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>110</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="J68" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
         <v>43980</v>
       </c>
       <c r="B69" s="1">
@@ -2405,18 +2609,21 @@
       <c r="F69" s="1">
         <v>117</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>118</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <v>119</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+      <c r="J69" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>43981</v>
       </c>
       <c r="B70" s="1">
@@ -2434,18 +2641,21 @@
       <c r="F70" s="1">
         <v>119</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>119</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>121</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+      <c r="J70" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
         <v>43982</v>
       </c>
       <c r="B71" s="1">
@@ -2463,18 +2673,21 @@
       <c r="F71" s="1">
         <v>105</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>105</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="1">
         <v>108</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+      <c r="J71" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
         <v>43983</v>
       </c>
       <c r="B72" s="1">
@@ -2492,18 +2705,21 @@
       <c r="F72" s="1">
         <v>128</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>131</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>133</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+      <c r="J72" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
         <v>43984</v>
       </c>
       <c r="B73" s="1">
@@ -2521,18 +2737,21 @@
       <c r="F73" s="1">
         <v>121</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>124</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>129</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+      <c r="J73" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
         <v>43985</v>
       </c>
       <c r="B74" s="1">
@@ -2550,18 +2769,21 @@
       <c r="F74" s="1">
         <v>124</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>128</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="1">
         <v>135</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+      <c r="J74" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
         <v>43986</v>
       </c>
       <c r="B75" s="1">
@@ -2579,18 +2801,21 @@
       <c r="F75" s="1">
         <v>112</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>116</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <v>132</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
+      <c r="J75" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
         <v>43987</v>
       </c>
       <c r="B76" s="1">
@@ -2608,18 +2833,21 @@
       <c r="F76" s="1">
         <v>46</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>74</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <v>99</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+      <c r="J76" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
         <v>43988</v>
       </c>
       <c r="B77" s="2"/>
@@ -2635,18 +2863,21 @@
       <c r="F77" s="2">
         <v>67</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>91</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="1">
         <v>118</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
+      <c r="J77" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
         <v>43989</v>
       </c>
       <c r="B78" s="2"/>
@@ -2660,18 +2891,21 @@
       <c r="F78" s="2">
         <v>98</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>115</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="1">
         <v>121</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+      <c r="J78" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
         <v>43990</v>
       </c>
       <c r="B79" s="2"/>
@@ -2683,78 +2917,113 @@
       <c r="F79" s="2">
         <v>79</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>101</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="1">
         <v>114</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+      <c r="J79" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
         <v>43991</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>20</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>112</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <v>127</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+      <c r="J80" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
         <v>43992</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="G81">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1">
         <v>23</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="1">
         <v>97</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
+      <c r="J81" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
         <v>43993</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="H82">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1">
         <v>29</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="I83">
+      <c r="J82" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1">
         <v>24</v>
+      </c>
+      <c r="J83" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
+++ b/input/NuevaDefDefunciones/Fallecidos Min Ciencias acumulado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darancibia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4D2B1-328E-5E45-B902-2FB30A5A5A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26EEF9D-0CE6-F34B-9F5E-B2F30BD7C287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,15 +105,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -405,46 +405,81 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7">
         <f>SUM(B3:B76)</f>
         <v>2190</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="7">
         <f>SUM(C3:C77)</f>
         <v>2264</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="7">
         <f>SUM(D3:D78)</f>
         <v>2283</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <f>SUM(E3:E94)</f>
         <v>2475</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="1">
+        <f>SUM(F3:F80)</f>
+        <v>2648</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(G3:G81)</f>
+        <v>2870</v>
+      </c>
+      <c r="H1" s="1">
+        <f>SUM(H3:H82)</f>
+        <v>3101</v>
+      </c>
+      <c r="I1" s="1">
+        <f>SUM(I3:I93)</f>
+        <v>3323</v>
+      </c>
+      <c r="J1" s="1">
+        <f>SUM(J3:J84)</f>
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>43989</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>43990</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>43991</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>43992</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="F2" s="6">
+        <v>43993</v>
+      </c>
+      <c r="G2" s="6">
+        <v>43994</v>
+      </c>
+      <c r="H2" s="6">
+        <v>43995</v>
+      </c>
+      <c r="I2" s="6">
+        <v>43996</v>
+      </c>
+      <c r="J2" s="6">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>43910</v>
       </c>
       <c r="B3" s="1">
@@ -459,9 +494,24 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>43915</v>
       </c>
       <c r="B4" s="1">
@@ -476,9 +526,24 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>43916</v>
       </c>
       <c r="B5" s="1">
@@ -493,9 +558,24 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>43917</v>
       </c>
       <c r="B6" s="1">
@@ -510,9 +590,24 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>43918</v>
       </c>
       <c r="B7" s="1">
@@ -527,9 +622,24 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>43919</v>
       </c>
       <c r="B8" s="1">
@@ -544,9 +654,24 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>43920</v>
       </c>
       <c r="B9" s="1">
@@ -561,9 +686,24 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>43921</v>
       </c>
       <c r="B10" s="1">
@@ -578,9 +718,24 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>43922</v>
       </c>
       <c r="B11" s="1">
@@ -595,9 +750,24 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>43923</v>
       </c>
       <c r="B12" s="1">
@@ -612,9 +782,24 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>43924</v>
       </c>
       <c r="B13" s="1">
@@ -629,9 +814,24 @@
       <c r="E13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>43925</v>
       </c>
       <c r="B14" s="1">
@@ -646,9 +846,24 @@
       <c r="E14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>43926</v>
       </c>
       <c r="B15" s="1">
@@ -663,9 +878,24 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>43927</v>
       </c>
       <c r="B16" s="1">
@@ -680,9 +910,24 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>43928</v>
       </c>
       <c r="B17" s="1">
@@ -697,9 +942,24 @@
       <c r="E17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>43929</v>
       </c>
       <c r="B18" s="1">
@@ -714,9 +974,24 @@
       <c r="E18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>43930</v>
       </c>
       <c r="B19" s="1">
@@ -731,9 +1006,24 @@
       <c r="E19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>43931</v>
       </c>
       <c r="B20" s="1">
@@ -748,9 +1038,24 @@
       <c r="E20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>43932</v>
       </c>
       <c r="B21" s="1">
@@ -765,9 +1070,24 @@
       <c r="E21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>43933</v>
       </c>
       <c r="B22" s="1">
@@ -782,9 +1102,24 @@
       <c r="E22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>43934</v>
       </c>
       <c r="B23" s="1">
@@ -799,9 +1134,24 @@
       <c r="E23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>43935</v>
       </c>
       <c r="B24" s="1">
@@ -816,9 +1166,24 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>43936</v>
       </c>
       <c r="B25" s="1">
@@ -833,9 +1198,24 @@
       <c r="E25" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>43937</v>
       </c>
       <c r="B26" s="1">
@@ -850,9 +1230,24 @@
       <c r="E26" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>43938</v>
       </c>
       <c r="B27" s="1">
@@ -867,9 +1262,24 @@
       <c r="E27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>43939</v>
       </c>
       <c r="B28" s="1">
@@ -884,9 +1294,24 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>43940</v>
       </c>
       <c r="B29" s="1">
@@ -901,9 +1326,24 @@
       <c r="E29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>43941</v>
       </c>
       <c r="B30" s="1">
@@ -918,9 +1358,24 @@
       <c r="E30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>43942</v>
       </c>
       <c r="B31" s="1">
@@ -935,9 +1390,24 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>43943</v>
       </c>
       <c r="B32" s="1">
@@ -952,9 +1422,24 @@
       <c r="E32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>43944</v>
       </c>
       <c r="B33" s="1">
@@ -969,9 +1454,24 @@
       <c r="E33" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>43945</v>
       </c>
       <c r="B34" s="1">
@@ -986,9 +1486,24 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>43946</v>
       </c>
       <c r="B35" s="1">
@@ -1003,9 +1518,24 @@
       <c r="E35" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>43947</v>
       </c>
       <c r="B36" s="1">
@@ -1020,9 +1550,24 @@
       <c r="E36" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="F36" s="1">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9</v>
+      </c>
+      <c r="I36" s="1">
+        <v>9</v>
+      </c>
+      <c r="J36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>43948</v>
       </c>
       <c r="B37" s="1">
@@ -1037,9 +1582,24 @@
       <c r="E37" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="F37" s="1">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1">
+        <v>11</v>
+      </c>
+      <c r="J37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>43949</v>
       </c>
       <c r="B38" s="1">
@@ -1054,9 +1614,24 @@
       <c r="E38" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>43950</v>
       </c>
       <c r="B39" s="1">
@@ -1071,9 +1646,24 @@
       <c r="E39" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>43951</v>
       </c>
       <c r="B40" s="1">
@@ -1088,9 +1678,24 @@
       <c r="E40" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>43952</v>
       </c>
       <c r="B41" s="1">
@@ -1105,9 +1710,24 @@
       <c r="E41" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>43953</v>
       </c>
       <c r="B42" s="1">
@@ -1122,9 +1742,24 @@
       <c r="E42" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>43954</v>
       </c>
       <c r="B43" s="1">
@@ -1139,9 +1774,24 @@
       <c r="E43" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="F43" s="1">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1">
+        <v>19</v>
+      </c>
+      <c r="I43" s="1">
+        <v>19</v>
+      </c>
+      <c r="J43" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43955</v>
       </c>
       <c r="B44" s="1">
@@ -1156,9 +1806,24 @@
       <c r="E44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="F44" s="1">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>43956</v>
       </c>
       <c r="B45" s="1">
@@ -1173,9 +1838,24 @@
       <c r="E45" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="F45" s="1">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1">
+        <v>11</v>
+      </c>
+      <c r="J45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>43957</v>
       </c>
       <c r="B46" s="1">
@@ -1190,9 +1870,24 @@
       <c r="E46" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="F46" s="1">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1">
+        <v>14</v>
+      </c>
+      <c r="J46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>43958</v>
       </c>
       <c r="B47" s="1">
@@ -1207,9 +1902,24 @@
       <c r="E47" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="F47" s="1">
+        <v>29</v>
+      </c>
+      <c r="G47" s="1">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1">
+        <v>29</v>
+      </c>
+      <c r="I47" s="1">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>43959</v>
       </c>
       <c r="B48" s="1">
@@ -1224,9 +1934,24 @@
       <c r="E48" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="F48" s="1">
+        <v>16</v>
+      </c>
+      <c r="G48" s="1">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1">
+        <v>16</v>
+      </c>
+      <c r="I48" s="1">
+        <v>16</v>
+      </c>
+      <c r="J48" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>43960</v>
       </c>
       <c r="B49" s="1">
@@ -1241,9 +1966,24 @@
       <c r="E49" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="F49" s="1">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1">
+        <v>22</v>
+      </c>
+      <c r="H49" s="1">
+        <v>22</v>
+      </c>
+      <c r="I49" s="1">
+        <v>22</v>
+      </c>
+      <c r="J49" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>43961</v>
       </c>
       <c r="B50" s="1">
@@ -1258,9 +1998,24 @@
       <c r="E50" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="F50" s="1">
+        <v>30</v>
+      </c>
+      <c r="G50" s="1">
+        <v>30</v>
+      </c>
+      <c r="H50" s="1">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>43962</v>
       </c>
       <c r="B51" s="1">
@@ -1275,9 +2030,24 @@
       <c r="E51" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="F51" s="1">
+        <v>19</v>
+      </c>
+      <c r="G51" s="1">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1">
+        <v>19</v>
+      </c>
+      <c r="I51" s="1">
+        <v>19</v>
+      </c>
+      <c r="J51" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>43963</v>
       </c>
       <c r="B52" s="1">
@@ -1292,9 +2062,24 @@
       <c r="E52" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="F52" s="1">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1">
+        <v>25</v>
+      </c>
+      <c r="H52" s="1">
+        <v>25</v>
+      </c>
+      <c r="I52" s="1">
+        <v>25</v>
+      </c>
+      <c r="J52" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>43964</v>
       </c>
       <c r="B53" s="1">
@@ -1309,9 +2094,24 @@
       <c r="E53" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="F53" s="1">
+        <v>38</v>
+      </c>
+      <c r="G53" s="1">
+        <v>38</v>
+      </c>
+      <c r="H53" s="1">
+        <v>38</v>
+      </c>
+      <c r="I53" s="1">
+        <v>38</v>
+      </c>
+      <c r="J53" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
         <v>43965</v>
       </c>
       <c r="B54" s="1">
@@ -1326,9 +2126,24 @@
       <c r="E54" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="F54" s="1">
+        <v>35</v>
+      </c>
+      <c r="G54" s="1">
+        <v>35</v>
+      </c>
+      <c r="H54" s="1">
+        <v>35</v>
+      </c>
+      <c r="I54" s="1">
+        <v>35</v>
+      </c>
+      <c r="J54" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
         <v>43966</v>
       </c>
       <c r="B55" s="1">
@@ -1343,9 +2158,24 @@
       <c r="E55" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="F55" s="1">
+        <v>32</v>
+      </c>
+      <c r="G55" s="1">
+        <v>32</v>
+      </c>
+      <c r="H55" s="1">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1">
+        <v>32</v>
+      </c>
+      <c r="J55" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>43967</v>
       </c>
       <c r="B56" s="1">
@@ -1360,9 +2190,24 @@
       <c r="E56" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="F56" s="1">
+        <v>47</v>
+      </c>
+      <c r="G56" s="1">
+        <v>47</v>
+      </c>
+      <c r="H56" s="1">
+        <v>48</v>
+      </c>
+      <c r="I56" s="1">
+        <v>49</v>
+      </c>
+      <c r="J56" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
         <v>43968</v>
       </c>
       <c r="B57" s="1">
@@ -1377,9 +2222,24 @@
       <c r="E57" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="F57" s="1">
+        <v>45</v>
+      </c>
+      <c r="G57" s="1">
+        <v>45</v>
+      </c>
+      <c r="H57" s="1">
+        <v>45</v>
+      </c>
+      <c r="I57" s="1">
+        <v>45</v>
+      </c>
+      <c r="J57" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
         <v>43969</v>
       </c>
       <c r="B58" s="1">
@@ -1394,9 +2254,24 @@
       <c r="E58" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="F58" s="1">
+        <v>60</v>
+      </c>
+      <c r="G58" s="1">
+        <v>60</v>
+      </c>
+      <c r="H58" s="1">
+        <v>60</v>
+      </c>
+      <c r="I58" s="1">
+        <v>60</v>
+      </c>
+      <c r="J58" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
         <v>43970</v>
       </c>
       <c r="B59" s="1">
@@ -1411,9 +2286,24 @@
       <c r="E59" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="F59" s="1">
+        <v>60</v>
+      </c>
+      <c r="G59" s="1">
+        <v>60</v>
+      </c>
+      <c r="H59" s="1">
+        <v>60</v>
+      </c>
+      <c r="I59" s="1">
+        <v>60</v>
+      </c>
+      <c r="J59" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>43971</v>
       </c>
       <c r="B60" s="1">
@@ -1428,9 +2318,24 @@
       <c r="E60" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="F60" s="1">
+        <v>65</v>
+      </c>
+      <c r="G60" s="1">
+        <v>65</v>
+      </c>
+      <c r="H60" s="1">
+        <v>65</v>
+      </c>
+      <c r="I60" s="1">
+        <v>65</v>
+      </c>
+      <c r="J60" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>43972</v>
       </c>
       <c r="B61" s="1">
@@ -1445,9 +2350,24 @@
       <c r="E61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="F61" s="1">
+        <v>60</v>
+      </c>
+      <c r="G61" s="1">
+        <v>60</v>
+      </c>
+      <c r="H61" s="1">
+        <v>60</v>
+      </c>
+      <c r="I61" s="1">
+        <v>60</v>
+      </c>
+      <c r="J61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>43973</v>
       </c>
       <c r="B62" s="1">
@@ -1462,9 +2382,24 @@
       <c r="E62" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="F62" s="1">
+        <v>69</v>
+      </c>
+      <c r="G62" s="1">
+        <v>69</v>
+      </c>
+      <c r="H62" s="1">
+        <v>69</v>
+      </c>
+      <c r="I62" s="1">
+        <v>69</v>
+      </c>
+      <c r="J62" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>43974</v>
       </c>
       <c r="B63" s="1">
@@ -1479,9 +2414,24 @@
       <c r="E63" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="F63" s="1">
+        <v>84</v>
+      </c>
+      <c r="G63" s="1">
+        <v>84</v>
+      </c>
+      <c r="H63" s="1">
+        <v>85</v>
+      </c>
+      <c r="I63" s="1">
+        <v>85</v>
+      </c>
+      <c r="J63" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>43975</v>
       </c>
       <c r="B64" s="1">
@@ -1496,9 +2446,24 @@
       <c r="E64" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="F64" s="1">
+        <v>93</v>
+      </c>
+      <c r="G64" s="1">
+        <v>93</v>
+      </c>
+      <c r="H64" s="1">
+        <v>94</v>
+      </c>
+      <c r="I64" s="1">
+        <v>95</v>
+      </c>
+      <c r="J64" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>43976</v>
       </c>
       <c r="B65" s="1">
@@ -1513,9 +2478,24 @@
       <c r="E65" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+      <c r="F65" s="1">
+        <v>85</v>
+      </c>
+      <c r="G65" s="1">
+        <v>85</v>
+      </c>
+      <c r="H65" s="1">
+        <v>85</v>
+      </c>
+      <c r="I65" s="1">
+        <v>86</v>
+      </c>
+      <c r="J65" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
         <v>43977</v>
       </c>
       <c r="B66" s="1">
@@ -1530,9 +2510,24 @@
       <c r="E66" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="F66" s="1">
+        <v>101</v>
+      </c>
+      <c r="G66" s="1">
+        <v>102</v>
+      </c>
+      <c r="H66" s="1">
+        <v>102</v>
+      </c>
+      <c r="I66" s="1">
+        <v>103</v>
+      </c>
+      <c r="J66" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>43978</v>
       </c>
       <c r="B67" s="1">
@@ -1547,9 +2542,24 @@
       <c r="E67" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="F67" s="1">
+        <v>111</v>
+      </c>
+      <c r="G67" s="1">
+        <v>111</v>
+      </c>
+      <c r="H67" s="1">
+        <v>113</v>
+      </c>
+      <c r="I67" s="1">
+        <v>115</v>
+      </c>
+      <c r="J67" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>43979</v>
       </c>
       <c r="B68" s="1">
@@ -1564,9 +2574,24 @@
       <c r="E68" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="F68" s="1">
+        <v>109</v>
+      </c>
+      <c r="G68" s="1">
+        <v>109</v>
+      </c>
+      <c r="H68" s="1">
+        <v>110</v>
+      </c>
+      <c r="I68" s="1">
+        <v>111</v>
+      </c>
+      <c r="J68" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
         <v>43980</v>
       </c>
       <c r="B69" s="1">
@@ -1581,9 +2606,24 @@
       <c r="E69" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+      <c r="F69" s="1">
+        <v>117</v>
+      </c>
+      <c r="G69" s="1">
+        <v>118</v>
+      </c>
+      <c r="H69" s="1">
+        <v>119</v>
+      </c>
+      <c r="I69" s="1">
+        <v>120</v>
+      </c>
+      <c r="J69" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>43981</v>
       </c>
       <c r="B70" s="1">
@@ -1598,9 +2638,24 @@
       <c r="E70" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+      <c r="F70" s="1">
+        <v>119</v>
+      </c>
+      <c r="G70" s="1">
+        <v>119</v>
+      </c>
+      <c r="H70" s="1">
+        <v>121</v>
+      </c>
+      <c r="I70" s="1">
+        <v>121</v>
+      </c>
+      <c r="J70" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
         <v>43982</v>
       </c>
       <c r="B71" s="1">
@@ -1615,9 +2670,24 @@
       <c r="E71" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+      <c r="F71" s="1">
+        <v>105</v>
+      </c>
+      <c r="G71" s="1">
+        <v>105</v>
+      </c>
+      <c r="H71" s="1">
+        <v>108</v>
+      </c>
+      <c r="I71" s="1">
+        <v>108</v>
+      </c>
+      <c r="J71" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
         <v>43983</v>
       </c>
       <c r="B72" s="1">
@@ -1632,9 +2702,24 @@
       <c r="E72" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+      <c r="F72" s="1">
+        <v>128</v>
+      </c>
+      <c r="G72" s="1">
+        <v>131</v>
+      </c>
+      <c r="H72" s="1">
+        <v>133</v>
+      </c>
+      <c r="I72" s="1">
+        <v>136</v>
+      </c>
+      <c r="J72" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
         <v>43984</v>
       </c>
       <c r="B73" s="1">
@@ -1649,9 +2734,24 @@
       <c r="E73" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+      <c r="F73" s="1">
+        <v>121</v>
+      </c>
+      <c r="G73" s="1">
+        <v>124</v>
+      </c>
+      <c r="H73" s="1">
+        <v>129</v>
+      </c>
+      <c r="I73" s="1">
+        <v>129</v>
+      </c>
+      <c r="J73" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
         <v>43985</v>
       </c>
       <c r="B74" s="1">
@@ -1666,9 +2766,24 @@
       <c r="E74" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+      <c r="F74" s="1">
+        <v>124</v>
+      </c>
+      <c r="G74" s="1">
+        <v>128</v>
+      </c>
+      <c r="H74" s="1">
+        <v>135</v>
+      </c>
+      <c r="I74" s="1">
+        <v>140</v>
+      </c>
+      <c r="J74" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
         <v>43986</v>
       </c>
       <c r="B75" s="1">
@@ -1683,9 +2798,24 @@
       <c r="E75" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
+      <c r="F75" s="1">
+        <v>112</v>
+      </c>
+      <c r="G75" s="1">
+        <v>116</v>
+      </c>
+      <c r="H75" s="1">
+        <v>132</v>
+      </c>
+      <c r="I75" s="1">
+        <v>134</v>
+      </c>
+      <c r="J75" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
         <v>43987</v>
       </c>
       <c r="B76" s="1">
@@ -1700,9 +2830,24 @@
       <c r="E76" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+      <c r="F76" s="1">
+        <v>46</v>
+      </c>
+      <c r="G76" s="1">
+        <v>74</v>
+      </c>
+      <c r="H76" s="1">
+        <v>99</v>
+      </c>
+      <c r="I76" s="1">
+        <v>120</v>
+      </c>
+      <c r="J76" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
         <v>43988</v>
       </c>
       <c r="B77" s="2"/>
@@ -1715,9 +2860,24 @@
       <c r="E77" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
+      <c r="F77" s="2">
+        <v>67</v>
+      </c>
+      <c r="G77" s="1">
+        <v>91</v>
+      </c>
+      <c r="H77" s="1">
+        <v>118</v>
+      </c>
+      <c r="I77" s="1">
+        <v>136</v>
+      </c>
+      <c r="J77" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
         <v>43989</v>
       </c>
       <c r="B78" s="2"/>
@@ -1728,9 +2888,24 @@
       <c r="E78" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+      <c r="F78" s="2">
+        <v>98</v>
+      </c>
+      <c r="G78" s="1">
+        <v>115</v>
+      </c>
+      <c r="H78" s="1">
+        <v>121</v>
+      </c>
+      <c r="I78" s="1">
+        <v>131</v>
+      </c>
+      <c r="J78" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
         <v>43990</v>
       </c>
       <c r="B79" s="2"/>
@@ -1739,45 +2914,123 @@
       <c r="E79" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+      <c r="F79" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" s="1">
+        <v>101</v>
+      </c>
+      <c r="H79" s="1">
+        <v>114</v>
+      </c>
+      <c r="I79" s="1">
+        <v>125</v>
+      </c>
+      <c r="J79" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
         <v>43991</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+      <c r="F80" s="1">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1">
+        <v>112</v>
+      </c>
+      <c r="H80" s="1">
+        <v>127</v>
+      </c>
+      <c r="I80" s="1">
+        <v>140</v>
+      </c>
+      <c r="J80" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
         <v>43992</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1">
+        <v>23</v>
+      </c>
+      <c r="H81" s="1">
+        <v>97</v>
+      </c>
+      <c r="I81" s="1">
+        <v>123</v>
+      </c>
+      <c r="J81" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
         <v>43993</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1">
+        <v>29</v>
+      </c>
+      <c r="I82" s="1">
+        <v>110</v>
+      </c>
+      <c r="J82" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1">
+        <v>24</v>
+      </c>
+      <c r="J83" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>43995</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E1" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>